--- a/biology/Zoologie/Gryphée_(fossile)/Gryphée_(fossile).xlsx
+++ b/biology/Zoologie/Gryphée_(fossile)/Gryphée_(fossile).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gryph%C3%A9e_(fossile)</t>
+          <t>Gryphée_(fossile)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gryphaea
 Gryphaea (gryphée en français) est un genre fossile de mollusques proches de l'huître, ayant vécu du Ladinien du Trias moyen à l'Éocène supérieur. On retrouve fréquemment de grandes quantités de fossiles de Gryphaea qui s'accumulent sous forme de lumachelles en particulier au Jurassique, par exemple au Sinémurien, au Toarcien, à l'Aalénien...
-Étroits et crochus, on les appelait autrefois « griffes du diable »[1].
+Étroits et crochus, on les appelait autrefois « griffes du diable ».
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gryph%C3%A9e_(fossile)</t>
+          <t>Gryphée_(fossile)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un mollusque bivalve à coquille inéquivalve comme Rastellum, sub-équilatérale au plan de commissure surélevé. Elle est de type monomyaire, dispose d'une charnière dysodonte, d'une aire ligamentaire striée et est recouverte de stries de croissance souvent bien visibles. La valve gauche très bombée est courbée en crochet ou griffe et la droite est plate et petite en forme d'opercule.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gryph%C3%A9e_(fossile)</t>
+          <t>Gryphée_(fossile)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Par leur abondance tout au long du Jurassique et la qualité habituelle de leur fossilisation, les Gryphées ont
-fait l’objet de nombreuses études et plusieurs modèles évolutifs ont été testés (Johnson, 1993, 1994)[2]… Le genre Gryphaea se différencie très vraisemblablement à la base de l’Hettangien à partir du genre Liostrea (en). Il disparaît dans la partie moyenne de l’Oxfordien[3] ».
+fait l’objet de nombreuses études et plusieurs modèles évolutifs ont été testés (Johnson, 1993, 1994)… Le genre Gryphaea se différencie très vraisemblablement à la base de l’Hettangien à partir du genre Liostrea (en). Il disparaît dans la partie moyenne de l’Oxfordien ».
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gryph%C3%A9e_(fossile)</t>
+          <t>Gryphée_(fossile)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre d'espèces référencées est de vingt-sept[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre d'espèces référencées est de vingt-sept :
 Gryphaea accipter Anderson, 1958
 Gryphaea arcta Braun, 1841
-Gryphaea arcuata Lamarck, 1801, gryphée arquée[5] ;
+Gryphaea arcuata Lamarck, 1801, gryphée arquée ;
 Gryphaea arcuataeformis Kiparisova, 1936
 Gryphaea avicularis Münster, 1841
 Gryphaea balli Stefanini, 1925
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gryph%C3%A9e_(fossile)</t>
+          <t>Gryphée_(fossile)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +653,9 @@
           <t>Calcaire à gryphées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gryphées, très abondantes dans certains dépôts lumachelliques du Lias, caractérisent le calcaire à gryphées.
 </t>
